--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il21-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il21-Il2rg.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H2">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I2">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J2">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N2">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O2">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P2">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q2">
-        <v>1.281798265426</v>
+        <v>0.8827956024159999</v>
       </c>
       <c r="R2">
-        <v>7.690789592556001</v>
+        <v>5.296773614495999</v>
       </c>
       <c r="S2">
-        <v>0.1453187234146129</v>
+        <v>0.1064709363310301</v>
       </c>
       <c r="T2">
-        <v>0.1226982899564841</v>
+        <v>0.09196679058175983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H3">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I3">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J3">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>1.704871</v>
       </c>
       <c r="O3">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P3">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q3">
         <v>0.01416444712822222</v>
@@ -641,10 +641,10 @@
         <v>0.127480024154</v>
       </c>
       <c r="S3">
-        <v>0.001605837228889482</v>
+        <v>0.001708325170884265</v>
       </c>
       <c r="T3">
-        <v>0.002033806903578112</v>
+        <v>0.002213409433365818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H4">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I4">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J4">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N4">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O4">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P4">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q4">
-        <v>1.328516919386222</v>
+        <v>1.640166111437777</v>
       </c>
       <c r="R4">
-        <v>11.956652274476</v>
+        <v>14.76149500294</v>
       </c>
       <c r="S4">
-        <v>0.1506152629218592</v>
+        <v>0.1978147842436963</v>
       </c>
       <c r="T4">
-        <v>0.1907555485723463</v>
+        <v>0.2563008009052418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H5">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I5">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J5">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N5">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O5">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P5">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q5">
-        <v>0.143924733491</v>
+        <v>0.4111765556383333</v>
       </c>
       <c r="R5">
-        <v>0.863548400946</v>
+        <v>2.46705933383</v>
       </c>
       <c r="S5">
-        <v>0.01631688784642684</v>
+        <v>0.04959058785110664</v>
       </c>
       <c r="T5">
-        <v>0.01377698750116456</v>
+        <v>0.04283504367379092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H6">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I6">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J6">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N6">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O6">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P6">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q6">
-        <v>0.7545955295666668</v>
+        <v>0.6830325577568888</v>
       </c>
       <c r="R6">
-        <v>6.791359766100001</v>
+        <v>6.147293019811999</v>
       </c>
       <c r="S6">
-        <v>0.08554923345488989</v>
+        <v>0.08237820370868255</v>
       </c>
       <c r="T6">
-        <v>0.1083488528390227</v>
+        <v>0.1067341840418751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H7">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I7">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J7">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N7">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O7">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P7">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q7">
-        <v>1.784236616841778</v>
+        <v>0.9698045480153331</v>
       </c>
       <c r="R7">
-        <v>16.058129551576</v>
+        <v>8.728240932137998</v>
       </c>
       <c r="S7">
-        <v>0.2022806508814267</v>
+        <v>0.1169647855094623</v>
       </c>
       <c r="T7">
-        <v>0.2561902145632924</v>
+        <v>0.1515466516741927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H8">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I8">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J8">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N8">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O8">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P8">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q8">
-        <v>0.8485438005000001</v>
+        <v>0.708034563756</v>
       </c>
       <c r="R8">
-        <v>3.394175202</v>
+        <v>2.832138255024</v>
       </c>
       <c r="S8">
-        <v>0.09620024084606064</v>
+        <v>0.08539360951903568</v>
       </c>
       <c r="T8">
-        <v>0.05415042084901135</v>
+        <v>0.0491738338760711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H9">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I9">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J9">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.704871</v>
       </c>
       <c r="O9">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P9">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q9">
-        <v>0.009376790500000001</v>
+        <v>0.0113604079085</v>
       </c>
       <c r="R9">
-        <v>0.056260743</v>
+        <v>0.068162447451</v>
       </c>
       <c r="S9">
-        <v>0.001063055912884551</v>
+        <v>0.001370139660653245</v>
       </c>
       <c r="T9">
-        <v>0.00089757974453791</v>
+        <v>0.001183490552269489</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H10">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I10">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J10">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N10">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O10">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P10">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q10">
-        <v>0.879471307</v>
+        <v>1.315473586435</v>
       </c>
       <c r="R10">
-        <v>5.276827842</v>
+        <v>7.89284151861</v>
       </c>
       <c r="S10">
-        <v>0.09970652251627611</v>
+        <v>0.1586547373855997</v>
       </c>
       <c r="T10">
-        <v>0.08418612222012231</v>
+        <v>0.1370417835209093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H11">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I11">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J11">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N11">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O11">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P11">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q11">
-        <v>0.09527742675</v>
+        <v>0.32977873066125</v>
       </c>
       <c r="R11">
-        <v>0.381109707</v>
+        <v>1.319114922645</v>
       </c>
       <c r="S11">
-        <v>0.01080169508650237</v>
+        <v>0.0397734766003242</v>
       </c>
       <c r="T11">
-        <v>0.006080196158269323</v>
+        <v>0.02290352102497974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H12">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I12">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J12">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N12">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O12">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P12">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q12">
-        <v>0.4995383250000001</v>
+        <v>0.5478172498130001</v>
       </c>
       <c r="R12">
-        <v>2.99722995</v>
+        <v>3.286903498878</v>
       </c>
       <c r="S12">
-        <v>0.05663314863478013</v>
+        <v>0.06607035124127712</v>
       </c>
       <c r="T12">
-        <v>0.04781758557369875</v>
+        <v>0.05706982924784297</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H13">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I13">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J13">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N13">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O13">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P13">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q13">
-        <v>1.181155382</v>
+        <v>0.7778189404244999</v>
       </c>
       <c r="R13">
-        <v>7.086932292</v>
+        <v>4.666913642547</v>
       </c>
       <c r="S13">
-        <v>0.1339087412553912</v>
+        <v>0.09381006277824804</v>
       </c>
       <c r="T13">
-        <v>0.1130643951184723</v>
+        <v>0.08103066146770131</v>
       </c>
     </row>
   </sheetData>
